--- a/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-006 Programa de Auditorias UM.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Formatos/GC-FOR-006 Programa de Auditorias UM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SGC - FOR - 06" sheetId="1" r:id="rId3"/>
@@ -877,7 +877,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -986,7 +986,7 @@
     <xdr:ext cx="1504950" cy="1152525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1014,7 +1014,7 @@
     <xdr:ext cx="952500" cy="1019175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1036,7 +1036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18794,29 +18794,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B11:O11"/>
     <mergeCell ref="A15:O15"/>
     <mergeCell ref="A14:O14"/>
-    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="E1:G4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="E1:G4"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:D3"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
